--- a/REGULAR/ROMILLA, EDITHA.xlsx
+++ b/REGULAR/ROMILLA, EDITHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D907B-52F3-4793-92D1-FCC538395E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B84776F-8FE3-4762-A080-0191C29B3568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3041,9 +3041,9 @@
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3252" topLeftCell="A83" activePane="bottomLeft"/>
-      <selection activeCell="P8" sqref="P8"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <pane ySplit="3252" topLeftCell="A98" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3204,7 +3204,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3214,7 +3214,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5207,13 +5207,15 @@
         <v>44986</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -5225,13 +5227,15 @@
         <v>45017</v>
       </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
@@ -5243,13 +5247,15 @@
         <v>45047</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -5261,13 +5267,15 @@
         <v>45078</v>
       </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G105" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
